--- a/public/files/template/inventory/kir.xlsx
+++ b/public/files/template/inventory/kir.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -530,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,13 +587,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,47 +644,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,6 +740,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -772,6 +792,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,44 +988,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
@@ -1091,10 +1128,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1122,36 +1159,36 @@
       <c r="C12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
       <c r="P12" s="29" t="s">
         <v>9</v>
       </c>
@@ -1159,41 +1196,41 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="35"/>
       <c r="C13" s="32"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="35"/>
       <c r="C14" s="32"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="20" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="28" t="s">
         <v>38</v>
       </c>
       <c r="P14" s="30"/>
@@ -1201,69 +1238,69 @@
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="35"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="35"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="30"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="35"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="36"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
       <c r="P18" s="30"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1314,21 +1351,21 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
@@ -1340,19 +1377,19 @@
       <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="39" t="s">
         <v>54</v>
       </c>
       <c r="J21" s="19" t="s">
@@ -1379,6 +1416,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="L14:L18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="D12:D18"/>
@@ -1395,9 +1435,6 @@
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="N14:N18"/>
     <mergeCell ref="E12:E18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="L14:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
